--- a/FishLandings/household groups/statistics/Omega3 (g)_output.xlsx
+++ b/FishLandings/household groups/statistics/Omega3 (g)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>2593.792633</v>
+        <v>3241.773955</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>44.350781</v>
+        <v>63.004168</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1121.284486</v>
+        <v>1874.521102</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9.586318</v>
+        <v>18.215743</v>
       </c>
       <c r="E3">
-        <v>0.000101</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>13041.839241</v>
+        <v>17082.504045</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-3.07613</v>
+        <v>-2.914123</v>
       </c>
       <c r="H5">
-        <v>-6.41605</v>
+        <v>-5.514826</v>
       </c>
       <c r="I5">
-        <v>0.26379</v>
+        <v>-0.31342</v>
       </c>
       <c r="J5">
-        <v>0.078071</v>
+        <v>0.023669</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>1.863805</v>
+        <v>2.316188</v>
       </c>
       <c r="H6">
-        <v>-1.732582</v>
+        <v>-0.415432</v>
       </c>
       <c r="I6">
-        <v>5.460192</v>
+        <v>5.047808</v>
       </c>
       <c r="J6">
-        <v>0.440974</v>
+        <v>0.114706</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>4.939935</v>
+        <v>5.230311</v>
       </c>
       <c r="H7">
-        <v>2.221029</v>
+        <v>3.176315</v>
       </c>
       <c r="I7">
-        <v>7.658841</v>
+        <v>7.284307</v>
       </c>
       <c r="J7">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Omega3 (g)_output.xlsx
+++ b/FishLandings/household groups/statistics/Omega3 (g)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>3241.773955</v>
+        <v>2593.792633</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>63.004168</v>
+        <v>44.350781</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1874.521102</v>
+        <v>1121.284486</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>18.215743</v>
+        <v>9.586318</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000101</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>17082.504045</v>
+        <v>13041.839241</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-2.914123</v>
+        <v>-3.07613</v>
       </c>
       <c r="H5">
-        <v>-5.514826</v>
+        <v>-6.41605</v>
       </c>
       <c r="I5">
-        <v>-0.31342</v>
+        <v>0.26379</v>
       </c>
       <c r="J5">
-        <v>0.023669</v>
+        <v>0.078071</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>2.316188</v>
+        <v>1.863805</v>
       </c>
       <c r="H6">
-        <v>-0.415432</v>
+        <v>-1.732582</v>
       </c>
       <c r="I6">
-        <v>5.047808</v>
+        <v>5.460192</v>
       </c>
       <c r="J6">
-        <v>0.114706</v>
+        <v>0.440974</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>5.230311</v>
+        <v>4.939935</v>
       </c>
       <c r="H7">
-        <v>3.176315</v>
+        <v>2.221029</v>
       </c>
       <c r="I7">
-        <v>7.284307</v>
+        <v>7.658841</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
   </sheetData>
